--- a/biology/Botanique/Ephedra_strobilacea/Ephedra_strobilacea.xlsx
+++ b/biology/Botanique/Ephedra_strobilacea/Ephedra_strobilacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ephedra strobilacea est une espèce de plantes gnétophytes (gymnospermes, classe des Equisetopsida) de la famille des Ephedraceae, originaire d'Asie centrale.
 </t>
@@ -511,14 +523,85 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ephedra strobilacea a été initialement décrite par Alexander von Bunge en 1852 et classée dans la section Alatae, tribu des Tropidolepides par Otto Stapf en 1889. En 1996, Robert A. Price a maintenu cette espèce dans la section Alatae mais sans reconnaître une tribu[2]
-Synonymes
-Selon The Plant List            (1 janvier 2020)[1] :
-Ephedra strobilacea subsp. strobilacea
-Liste des sous-espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (1 janvier 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ephedra strobilacea a été initialement décrite par Alexander von Bunge en 1852 et classée dans la section Alatae, tribu des Tropidolepides par Otto Stapf en 1889. En 1996, Robert A. Price a maintenu cette espèce dans la section Alatae mais sans reconnaître une tribu
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ephedra_strobilacea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ephedra_strobilacea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (1 janvier 2020) :
+Ephedra strobilacea subsp. strobilacea</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ephedra_strobilacea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ephedra_strobilacea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (1 janvier 2020) :
 Ephedra strobilacea subsp. microbracteata (Ghahr.) Freitag &amp; Maier-St. (1994)
 Ephedra strobilacea subsp. strobilacea
 </t>
